--- a/config_12.29/fish_2d_fish_server.xlsx
+++ b/config_12.29/fish_2d_fish_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="1" r:id="rId1"/>
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="406">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1715,20 +1715,24 @@
     <t>182,</t>
   </si>
   <si>
-    <t>"prop_sd_lh",0,0.05,0.1</t>
-  </si>
-  <si>
-    <t>"prop_sd_lh",0,0.1,0.2</t>
-  </si>
-  <si>
-    <t>"prop_sd_lh",0,0.2,0.3</t>
-  </si>
-  <si>
-    <t>"prop_sd_lh",1,0.01,</t>
-  </si>
-  <si>
     <t>袜子boss</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金牛boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_yd_jyb",0,0.1,0.2</t>
+  </si>
+  <si>
+    <t>"prop_yd_jyb",0,0.2,0.3</t>
+  </si>
+  <si>
+    <t>"prop_yd_jyb",0,0.3,0.4</t>
+  </si>
+  <si>
+    <t>"prop_yd_jyb",1,0.01,</t>
   </si>
 </sst>
 </file>
@@ -2266,7 +2270,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+    <sheetView topLeftCell="A180" workbookViewId="0">
       <selection activeCell="I200" sqref="I200"/>
     </sheetView>
   </sheetViews>
@@ -8076,11 +8080,11 @@
       <c r="G207" s="37"/>
       <c r="H207" s="37">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q207,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R207,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S207,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T207,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U207,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V207,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W207,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="I207" s="37">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q207,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R207,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S207,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T207,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U207,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V207,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W207,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="J207" s="36">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q207,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R207,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S207,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T207,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U207,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V207,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W207,use_fish!A:A,use_fish!K:K),0),)</f>
@@ -8112,11 +8116,11 @@
       <c r="G208" s="37"/>
       <c r="H208" s="37">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q208,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R208,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S208,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T208,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U208,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V208,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W208,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="I208" s="37">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q208,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R208,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S208,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T208,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U208,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V208,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W208,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="J208" s="36">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q208,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R208,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S208,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T208,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U208,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V208,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W208,use_fish!A:A,use_fish!K:K),0),)</f>
@@ -8148,11 +8152,11 @@
       <c r="G209" s="37"/>
       <c r="H209" s="37">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q209,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R209,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S209,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T209,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U209,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V209,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W209,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="I209" s="37">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q209,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R209,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S209,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T209,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U209,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V209,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W209,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="J209" s="36">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q209,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R209,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S209,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T209,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U209,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V209,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W209,use_fish!A:A,use_fish!K:K),0),)</f>
@@ -8354,7 +8358,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H188" sqref="H188"/>
+      <selection pane="bottomLeft" activeCell="E187" sqref="E187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16893,7 +16897,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C181" s="39">
         <v>44</v>
@@ -16901,22 +16905,22 @@
       <c r="D181" s="40"/>
       <c r="E181" s="37">
         <f>LOOKUP(use_fish!B181,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C181,activity!A:A,0)),0)</f>
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="F181" s="39">
         <f t="shared" si="8"/>
-        <v>1.3333333333333334E-2</v>
+        <v>6.6666666666666671E-3</v>
       </c>
       <c r="G181" s="36" t="s">
         <v>81</v>
       </c>
       <c r="H181" s="39" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B181,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C181,activity!A:A,0)),"")</f>
-        <v>袜子boss+临时活动</v>
+        <v>金牛boss+临时活动</v>
       </c>
       <c r="I181" s="37">
         <f>LOOKUP(use_fish!B181,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C181,activity!A:A,0)),0)</f>
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="J181" s="37">
         <v>1</v>
@@ -16927,7 +16931,7 @@
       </c>
       <c r="L181" s="37">
         <f t="shared" si="9"/>
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="M181" s="37">
         <v>1</v>
@@ -16941,7 +16945,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C182" s="39">
         <v>45</v>
@@ -16949,22 +16953,22 @@
       <c r="D182" s="40"/>
       <c r="E182" s="37">
         <f>LOOKUP(use_fish!B182,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C182,activity!A:A,0)),0)</f>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="F182" s="39">
         <f t="shared" si="8"/>
-        <v>6.6666666666666671E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G182" s="36" t="s">
         <v>81</v>
       </c>
       <c r="H182" s="39" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B182,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C182,activity!A:A,0)),"")</f>
-        <v>袜子boss+临时活动</v>
+        <v>金牛boss+临时活动</v>
       </c>
       <c r="I182" s="37">
         <f>LOOKUP(use_fish!B182,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C182,activity!A:A,0)),0)</f>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="J182" s="37">
         <v>1</v>
@@ -16975,7 +16979,7 @@
       </c>
       <c r="L182" s="37">
         <f t="shared" si="9"/>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="M182" s="37">
         <v>1</v>
@@ -16989,7 +16993,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C183" s="39">
         <v>46</v>
@@ -16997,22 +17001,22 @@
       <c r="D183" s="40"/>
       <c r="E183" s="37">
         <f>LOOKUP(use_fish!B183,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C183,activity!A:A,0)),0)</f>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="F183" s="39">
         <f t="shared" si="8"/>
-        <v>4.0000000000000001E-3</v>
+        <v>2.8571428571428571E-3</v>
       </c>
       <c r="G183" s="36" t="s">
         <v>81</v>
       </c>
       <c r="H183" s="39" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B183,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C183,activity!A:A,0)),"")</f>
-        <v>袜子boss+临时活动</v>
+        <v>金牛boss+临时活动</v>
       </c>
       <c r="I183" s="37">
         <f>LOOKUP(use_fish!B183,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C183,activity!A:A,0)),0)</f>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="J183" s="37">
         <v>1</v>
@@ -17023,7 +17027,7 @@
       </c>
       <c r="L183" s="37">
         <f t="shared" si="9"/>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M183" s="37">
         <v>1</v>
@@ -17044,8 +17048,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18242,7 +18246,7 @@
         <v>9</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D45" s="38">
         <v>0</v>
@@ -18251,7 +18255,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="37">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="G45" s="37" t="s">
         <v>132</v>
@@ -18265,7 +18269,7 @@
         <v>9</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D46" s="38">
         <v>0</v>
@@ -18274,7 +18278,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="37">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G46" s="37" t="s">
         <v>132</v>
@@ -18288,7 +18292,7 @@
         <v>9</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D47" s="38">
         <v>0</v>
@@ -18297,7 +18301,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="37">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="G47" s="37" t="s">
         <v>132</v>
@@ -18311,7 +18315,7 @@
         <v>9</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D48" s="38">
         <v>1</v>
@@ -18418,11 +18422,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
+      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19312,12 +19316,35 @@
         <v>0</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F36" s="36">
         <v>0</v>
       </c>
       <c r="G36" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="36">
+        <v>36</v>
+      </c>
+      <c r="B37" s="36">
+        <v>1</v>
+      </c>
+      <c r="C37" s="36">
+        <v>0</v>
+      </c>
+      <c r="D37" s="36">
+        <v>0</v>
+      </c>
+      <c r="E37" s="36" t="s">
+        <v>401</v>
+      </c>
+      <c r="F37" s="36">
+        <v>0</v>
+      </c>
+      <c r="G37" s="36">
         <v>0</v>
       </c>
     </row>

--- a/config_12.29/fish_2d_fish_server.xlsx
+++ b/config_12.29/fish_2d_fish_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="1" r:id="rId1"/>
@@ -8356,9 +8356,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N183"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E187" sqref="E187"/>
+      <selection pane="bottomLeft" activeCell="N183" sqref="N183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16937,7 +16937,7 @@
         <v>1</v>
       </c>
       <c r="N181" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.2">
@@ -16985,7 +16985,7 @@
         <v>1</v>
       </c>
       <c r="N182" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.2">
@@ -17033,7 +17033,7 @@
         <v>1</v>
       </c>
       <c r="N183" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -17048,7 +17048,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
